--- a/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
+++ b/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="388">
   <si>
     <t>calibrator_ID</t>
   </si>
@@ -322,7 +322,7 @@
     <t>AM_Peak_prct</t>
   </si>
   <si>
-    <t>Hour_Beginning</t>
+    <t>Hour_Beginning_AM</t>
   </si>
   <si>
     <t>SEASONAL_FACTOR</t>
@@ -331,6 +331,9 @@
     <t>PM_Peak_prct</t>
   </si>
   <si>
+    <t>Hour_Beginning_PM</t>
+  </si>
+  <si>
     <t>rec_Check</t>
   </si>
   <si>
@@ -355,15 +358,18 @@
     <t>20.3</t>
   </si>
   <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0 </t>
+  </si>
+  <si>
     <t>4:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">33083 </t>
   </si>
   <si>
@@ -385,12 +391,15 @@
     <t>7.3</t>
   </si>
   <si>
+    <t>7:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0 </t>
+  </si>
+  <si>
     <t>5:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">33084 </t>
   </si>
   <si>
@@ -439,15 +448,15 @@
     <t>10.7</t>
   </si>
   <si>
+    <t xml:space="preserve">1.043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 </t>
+  </si>
+  <si>
     <t>3:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">1.043 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">37100 </t>
   </si>
   <si>
@@ -700,27 +709,30 @@
     <t>424978644</t>
   </si>
   <si>
+    <t>53723a</t>
+  </si>
+  <si>
+    <t>10,495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53723 </t>
+  </si>
+  <si>
+    <t>Belmont-BmontMansn-PrkSD-SB-09-53723</t>
+  </si>
+  <si>
+    <t>Belmont-BmontMansn-PrkSD-SB-09-RouteProbe</t>
+  </si>
+  <si>
+    <t>-423965484</t>
+  </si>
+  <si>
     <t>53723</t>
   </si>
   <si>
-    <t>Belmont-BmontMansn-PrkSD-SB-09-53723</t>
-  </si>
-  <si>
-    <t>Belmont-BmontMansn-PrkSD-SB-09-RouteProbe</t>
-  </si>
-  <si>
-    <t>-423965484</t>
-  </si>
-  <si>
-    <t>10,495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53723 </t>
-  </si>
-  <si>
     <t>Belmont-Wynn-GrgHill-NB-10-67303</t>
   </si>
   <si>
@@ -790,6 +802,9 @@
     <t>7.0</t>
   </si>
   <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.879 </t>
   </si>
   <si>
@@ -964,202 +979,205 @@
     <t>12180460#0</t>
   </si>
   <si>
+    <t>118680a</t>
+  </si>
+  <si>
+    <t>10,896</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118680 </t>
+  </si>
+  <si>
+    <t>Belmont-PrkSD-GrgHill-NB-16-127934</t>
+  </si>
+  <si>
+    <t>Belmont-PrkSD-GrgHill-NB-16-RouteProbe</t>
+  </si>
+  <si>
+    <t>423967359#0</t>
+  </si>
+  <si>
+    <t>127934</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>11,494</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">127934 </t>
+  </si>
+  <si>
+    <t>Belmont-GrgHill-Monmnt-SB-16-127937</t>
+  </si>
+  <si>
+    <t>Belmont-GrgHill-Monmnt-SB-16-RouteProbe</t>
+  </si>
+  <si>
+    <t>-424978642.170</t>
+  </si>
+  <si>
+    <t>127937</t>
+  </si>
+  <si>
+    <t>9,628</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">127937 </t>
+  </si>
+  <si>
+    <t>Belmont-Stiles-Viola-SB-17-135472</t>
+  </si>
+  <si>
+    <t>Belmont-Stiles-Viola-SB-17-RouteProbe</t>
+  </si>
+  <si>
+    <t>-423956982</t>
+  </si>
+  <si>
+    <t>135472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135472 </t>
+  </si>
+  <si>
+    <t>Belmont-Stiles-Viola-NB-17-135471</t>
+  </si>
+  <si>
+    <t>Belmont-Stiles-Viola-NB-17-RouteProbe</t>
+  </si>
+  <si>
+    <t>423956980</t>
+  </si>
+  <si>
+    <t>135471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,142 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135471 </t>
+  </si>
+  <si>
+    <t>Girard-38th-34th-WB-2017-135477</t>
+  </si>
+  <si>
+    <t>Girard-38th-34th-WB-2017-RouteProbe</t>
+  </si>
+  <si>
+    <t>134558408#1</t>
+  </si>
+  <si>
+    <t>135477</t>
+  </si>
+  <si>
+    <t>13,412</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135477 </t>
+  </si>
+  <si>
+    <t>Parkside_limiter-SB-49940321#1</t>
+  </si>
+  <si>
+    <t>49940321#1</t>
+  </si>
+  <si>
+    <t>33087a</t>
+  </si>
+  <si>
+    <t>Parkside_limiter-1-SB-12184200#0</t>
+  </si>
+  <si>
+    <t>12184200#0</t>
+  </si>
+  <si>
+    <t>33087b</t>
+  </si>
+  <si>
+    <t>ParkSide-52nd-Belmont-WB-2017-135473</t>
+  </si>
+  <si>
+    <t>ParkSide-52nd-Belmont-WB-2017-RouteProbe</t>
+  </si>
+  <si>
+    <t>62105282#0</t>
+  </si>
+  <si>
+    <t>135473a</t>
+  </si>
+  <si>
+    <t>11,950</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135473 </t>
+  </si>
+  <si>
+    <t>ParkSide-52nd-Belmont-EB-2017-135473</t>
+  </si>
+  <si>
+    <t>ParkSide-52nd-Belmont-EB-2017-RouteProbe</t>
+  </si>
+  <si>
+    <t>-388756837#2</t>
+  </si>
+  <si>
+    <t>135473b</t>
+  </si>
+  <si>
+    <t>Wynn-PrkSD-Belmont-BTH_2-EB-15-118680</t>
+  </si>
+  <si>
+    <t>Wynn-PrkSD-Belmont-BTH_2-EB-15-RouteProbe</t>
+  </si>
+  <si>
+    <t>-12180460#1</t>
+  </si>
+  <si>
     <t>118680</t>
-  </si>
-  <si>
-    <t>Belmont-PrkSD-GrgHill-NB-16-127934</t>
-  </si>
-  <si>
-    <t>Belmont-PrkSD-GrgHill-NB-16-RouteProbe</t>
-  </si>
-  <si>
-    <t>423967359#0</t>
-  </si>
-  <si>
-    <t>127934</t>
-  </si>
-  <si>
-    <t>0.954</t>
-  </si>
-  <si>
-    <t>11,494</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">127934 </t>
-  </si>
-  <si>
-    <t>Belmont-GrgHill-Monmnt-SB-16-127937</t>
-  </si>
-  <si>
-    <t>Belmont-GrgHill-Monmnt-SB-16-RouteProbe</t>
-  </si>
-  <si>
-    <t>-424978642.170</t>
-  </si>
-  <si>
-    <t>127937</t>
-  </si>
-  <si>
-    <t>9,628</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">127937 </t>
-  </si>
-  <si>
-    <t>Belmont-Stiles-Viola-SB-17-135472</t>
-  </si>
-  <si>
-    <t>Belmont-Stiles-Viola-SB-17-RouteProbe</t>
-  </si>
-  <si>
-    <t>-423956982</t>
-  </si>
-  <si>
-    <t>135472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135472 </t>
-  </si>
-  <si>
-    <t>Belmont-Stiles-Viola-NB-17-135471</t>
-  </si>
-  <si>
-    <t>Belmont-Stiles-Viola-NB-17-RouteProbe</t>
-  </si>
-  <si>
-    <t>423956980</t>
-  </si>
-  <si>
-    <t>135471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,142 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:00 PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">135471 </t>
-  </si>
-  <si>
-    <t>Girard-38th-34th-WB-2017-135477</t>
-  </si>
-  <si>
-    <t>Girard-38th-34th-WB-2017-RouteProbe</t>
-  </si>
-  <si>
-    <t>134558408#1</t>
-  </si>
-  <si>
-    <t>135477</t>
-  </si>
-  <si>
-    <t>13,412</t>
-  </si>
-  <si>
-    <t>12:00 PM</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135477 </t>
-  </si>
-  <si>
-    <t>Parkside_limiter-SB-49940321#1</t>
-  </si>
-  <si>
-    <t>49940321#1</t>
-  </si>
-  <si>
-    <t>33087a</t>
-  </si>
-  <si>
-    <t>Parkside_limiter-1-SB-12184200#0</t>
-  </si>
-  <si>
-    <t>12184200#0</t>
-  </si>
-  <si>
-    <t>33087b</t>
-  </si>
-  <si>
-    <t>ParkSide-52nd-Belmont-WB-2017-135473</t>
-  </si>
-  <si>
-    <t>ParkSide-52nd-Belmont-WB-2017-RouteProbe</t>
-  </si>
-  <si>
-    <t>62105282#0</t>
-  </si>
-  <si>
-    <t>135473a</t>
-  </si>
-  <si>
-    <t>11,950</t>
-  </si>
-  <si>
-    <t>0.943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135473 </t>
-  </si>
-  <si>
-    <t>ParkSide-52nd-Belmont-EB-2017-135473</t>
-  </si>
-  <si>
-    <t>ParkSide-52nd-Belmont-EB-2017-RouteProbe</t>
-  </si>
-  <si>
-    <t>-388756837#2</t>
-  </si>
-  <si>
-    <t>135473b</t>
-  </si>
-  <si>
-    <t>Wynn-PrkSD-Belmont-BTH_2-EB-15-118680</t>
-  </si>
-  <si>
-    <t>Wynn-PrkSD-Belmont-BTH_2-EB-15-RouteProbe</t>
-  </si>
-  <si>
-    <t>-12180460#1</t>
-  </si>
-  <si>
-    <t>10,896</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">118680 </t>
   </si>
 </sst>
 </file>
@@ -1635,109 +1653,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="R2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="S2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="T2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="U2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="V2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="W2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="X2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Y2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Z2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AA2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AB2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AC2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AD2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AE2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AF2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AG2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AH2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AJ2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1745,109 +1763,109 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="T3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="U3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="V3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="W3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="X3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Y3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Z3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AA3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AB3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AC3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AD3" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AE3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AF3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AG3" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AH3" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AI3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AJ3" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1855,109 +1873,109 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="R4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="S4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="U4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="V4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="W4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="X4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Y4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Z4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AA4" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AB4" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AC4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AD4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AE4" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AF4" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG4" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AH4" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AI4" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AJ4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -12415,109 +12433,109 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G100" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I100" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J100" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L100" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M100" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R100" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S100" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="T100" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="U100" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V100" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="W100" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="X100" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Y100" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Z100" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AA100" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AB100" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AC100" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AD100" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AE100" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AF100" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AG100" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AH100" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AI100" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AJ100" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -12525,97 +12543,109 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G101" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H101" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N101" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="O101" t="s">
+        <v>178</v>
       </c>
       <c r="P101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="R101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S101" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="T101" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="U101" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="V101" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="W101" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="X101" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Y101" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>288</v>
       </c>
       <c r="AA101" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AB101" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AC101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AD101" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AE101" t="s">
-        <v>321</v>
+        <v>331</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>111</v>
       </c>
       <c r="AH101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AI101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ101" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:36">
@@ -12623,97 +12653,109 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H102" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I102" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K102" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L102" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M102" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N102" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="O102" t="s">
+        <v>232</v>
       </c>
       <c r="P102" t="s">
         <v>232</v>
       </c>
       <c r="Q102" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="R102" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="S102" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T102" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="U102" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="V102" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="W102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="X102" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Y102" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>322</v>
       </c>
       <c r="AA102" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ102" t="s">
         <v>322</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH102" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI102" t="s">
-        <v>367</v>
-      </c>
-      <c r="AJ102" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -12721,94 +12763,106 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E103" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F103" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H103" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I103" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J103" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N103" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="O103" t="s">
+        <v>224</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q103" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="R103" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="S103" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T103" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="U103" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="V103" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="W103" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="X103" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y103" t="s">
-        <v>310</v>
+        <v>315</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>323</v>
       </c>
       <c r="AA103" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ103" t="s">
         <v>323</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH103" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI103" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ103" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:36">
@@ -12816,97 +12870,109 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N104" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="O104" t="s">
+        <v>114</v>
       </c>
       <c r="P104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="R104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="S104" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="T104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="U104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="V104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="W104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Y104" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>114</v>
       </c>
       <c r="AA104" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AB104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AD104" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AE104" t="s">
-        <v>353</v>
+        <v>125</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>125</v>
       </c>
       <c r="AH104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:36">
@@ -12914,94 +12980,106 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J105" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K105" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L105" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M105" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N105" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="O105" t="s">
+        <v>225</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="S105" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T105" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="U105" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="V105" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="W105" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="X105" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Y105" t="s">
-        <v>286</v>
+        <v>291</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>324</v>
       </c>
       <c r="AA105" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ105" t="s">
         <v>324</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH105" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI105" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:36">
@@ -13009,290 +13087,326 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G106" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H106" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I106" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J106" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K106" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L106" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M106" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N106" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="O106" t="s">
+        <v>233</v>
       </c>
       <c r="P106" t="s">
         <v>233</v>
       </c>
       <c r="Q106" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="R106" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S106" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="T106" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="U106" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="V106" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="W106" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="X106" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Y106" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>325</v>
       </c>
       <c r="AA106" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ106" t="s">
         <v>325</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH106" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI106" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ106" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N107" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="O107" t="s">
+        <v>117</v>
       </c>
       <c r="P107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="R107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="T107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="V107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="W107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Y107" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>127</v>
       </c>
       <c r="AA107" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AB107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AC107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AD107" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AE107" t="s">
-        <v>353</v>
+        <v>365</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>127</v>
       </c>
       <c r="AH107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AI107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AJ107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F108" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G108" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H108" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I108" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J108" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K108" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L108" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M108" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N108" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="O108" t="s">
+        <v>234</v>
       </c>
       <c r="P108" t="s">
         <v>234</v>
       </c>
       <c r="Q108" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="R108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="S108" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="T108" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U108" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="V108" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="W108" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="X108" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Y108" t="s">
-        <v>312</v>
+        <v>317</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>326</v>
       </c>
       <c r="AA108" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ108" t="s">
         <v>326</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH108" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
+++ b/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="388">
   <si>
     <t>calibrator_ID</t>
   </si>
@@ -1078,16 +1078,16 @@
     <t>135471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,142 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:00 PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">135471 </t>
+    <t>8,142</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>8.9</t>
   </si>
   <si>
     <t>Girard-38th-34th-WB-2017-135477</t>
@@ -12627,7 +12627,7 @@
         <v>178</v>
       </c>
       <c r="AD101" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="AE101" t="s">
         <v>331</v>
@@ -12737,7 +12737,7 @@
         <v>214</v>
       </c>
       <c r="AD102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE102" t="s">
         <v>362</v>
@@ -12846,6 +12846,9 @@
       <c r="AC103" t="s">
         <v>215</v>
       </c>
+      <c r="AD103" t="s">
+        <v>355</v>
+      </c>
       <c r="AE103" t="s">
         <v>171</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>114</v>
       </c>
       <c r="AD104" t="s">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="AE104" t="s">
         <v>125</v>
@@ -13063,6 +13066,9 @@
       <c r="AC105" t="s">
         <v>216</v>
       </c>
+      <c r="AD105" t="s">
+        <v>356</v>
+      </c>
       <c r="AE105" t="s">
         <v>363</v>
       </c>
@@ -13170,6 +13176,9 @@
       <c r="AC106" t="s">
         <v>217</v>
       </c>
+      <c r="AD106" t="s">
+        <v>357</v>
+      </c>
       <c r="AE106" t="s">
         <v>364</v>
       </c>
@@ -13278,7 +13287,7 @@
         <v>127</v>
       </c>
       <c r="AD107" t="s">
-        <v>356</v>
+        <v>117</v>
       </c>
       <c r="AE107" t="s">
         <v>365</v>
@@ -13388,7 +13397,7 @@
         <v>349</v>
       </c>
       <c r="AD108" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AE108" t="s">
         <v>366</v>

--- a/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
+++ b/BMAOI_Dbox-DataFrames/Calibrator_Master_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="419">
   <si>
     <t>calibrator_ID</t>
   </si>
@@ -337,6 +337,30 @@
     <t>rec_Check</t>
   </si>
   <si>
+    <t>Collected_YR</t>
+  </si>
+  <si>
+    <t>Collected_on_1</t>
+  </si>
+  <si>
+    <t>Collected_on_2</t>
+  </si>
+  <si>
+    <t>Collected_on_3</t>
+  </si>
+  <si>
+    <t>Collected_on_4</t>
+  </si>
+  <si>
+    <t>Collected_on_5</t>
+  </si>
+  <si>
+    <t>Collected_on_6</t>
+  </si>
+  <si>
+    <t>Collected_on_7</t>
+  </si>
+  <si>
     <t>ConcrseDR-Belmont-MemHll-EB-02-33083</t>
   </si>
   <si>
@@ -373,6 +397,18 @@
     <t xml:space="preserve">33083 </t>
   </si>
   <si>
+    <t>12/2/2002</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
     <t>ConcrseDR-Belmont-MemHll-WB-02-33084</t>
   </si>
   <si>
@@ -460,6 +496,15 @@
     <t xml:space="preserve">37100 </t>
   </si>
   <si>
+    <t>3/2/2005</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
     <t>Wynn-GeogresLA-53rd-WB-05-37101</t>
   </si>
   <si>
@@ -514,6 +559,9 @@
     <t xml:space="preserve">37671 </t>
   </si>
   <si>
+    <t>7/11/2005</t>
+  </si>
+  <si>
     <t>Belmont-Wynn-PrkSD-SB-05-37672</t>
   </si>
   <si>
@@ -568,6 +616,9 @@
     <t xml:space="preserve">47340 </t>
   </si>
   <si>
+    <t>3/3/2008</t>
+  </si>
+  <si>
     <t>Belmont-Conshi-US1-SB-08-47341</t>
   </si>
   <si>
@@ -622,6 +673,9 @@
     <t xml:space="preserve">47475 </t>
   </si>
   <si>
+    <t>3/11/2008</t>
+  </si>
+  <si>
     <t>Belmont_PennGRV-WYALUSING-NB-09-53494</t>
   </si>
   <si>
@@ -646,6 +700,9 @@
     <t xml:space="preserve">53494 </t>
   </si>
   <si>
+    <t>2/17/2009</t>
+  </si>
+  <si>
     <t>Belmont-PrkSD-Monument-NB-09-53497</t>
   </si>
   <si>
@@ -760,6 +817,9 @@
     <t xml:space="preserve">67303 </t>
   </si>
   <si>
+    <t>7/27/2010</t>
+  </si>
+  <si>
     <t>Belmont-Wynn-GrgHill-SB-10-67304</t>
   </si>
   <si>
@@ -814,6 +874,9 @@
     <t xml:space="preserve">78089 </t>
   </si>
   <si>
+    <t>5/2/2011</t>
+  </si>
+  <si>
     <t>Belmont-Monmnt-Conshi-NB-12-87722</t>
   </si>
   <si>
@@ -844,6 +907,9 @@
     <t xml:space="preserve">87722 </t>
   </si>
   <si>
+    <t>4/16/2012</t>
+  </si>
+  <si>
     <t>Belmont-Monmnt-Conshi-SB-12-87723</t>
   </si>
   <si>
@@ -898,6 +964,9 @@
     <t xml:space="preserve">110747 </t>
   </si>
   <si>
+    <t>4/15/2014</t>
+  </si>
+  <si>
     <t>Montgm-BelMan-76-ramps-WB-14-110748</t>
   </si>
   <si>
@@ -925,6 +994,9 @@
     <t xml:space="preserve">110748 </t>
   </si>
   <si>
+    <t>6/17/2014</t>
+  </si>
+  <si>
     <t>Montgm-76-ramp-MLK-EB-14-110749</t>
   </si>
   <si>
@@ -997,6 +1069,15 @@
     <t xml:space="preserve">118680 </t>
   </si>
   <si>
+    <t>4/6/2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
     <t>Belmont-PrkSD-GrgHill-NB-16-127934</t>
   </si>
   <si>
@@ -1027,6 +1108,9 @@
     <t xml:space="preserve">127934 </t>
   </si>
   <si>
+    <t>3/15/2016</t>
+  </si>
+  <si>
     <t>Belmont-GrgHill-Monmnt-SB-16-127937</t>
   </si>
   <si>
@@ -1066,6 +1150,9 @@
     <t xml:space="preserve">135472 </t>
   </si>
   <si>
+    <t>3/27/2017</t>
+  </si>
+  <si>
     <t>Belmont-Stiles-Viola-NB-17-135471</t>
   </si>
   <si>
@@ -1090,6 +1177,9 @@
     <t>8.9</t>
   </si>
   <si>
+    <t xml:space="preserve">3/27/2017 </t>
+  </si>
+  <si>
     <t>Girard-38th-34th-WB-2017-135477</t>
   </si>
   <si>
@@ -1115,6 +1205,9 @@
   </si>
   <si>
     <t xml:space="preserve">135477 </t>
+  </si>
+  <si>
+    <t>5/10/2017</t>
   </si>
   <si>
     <t>Parkside_limiter-SB-49940321#1</t>
@@ -1535,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,109 +1746,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="N2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="Q2" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="S2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="T2" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="U2" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="V2" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="W2" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="X2" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="Y2" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="Z2" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="AA2" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="AB2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AC2" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="AD2" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="AE2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AF2" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="AG2" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AI2" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="AJ2" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1763,109 +1856,109 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="S3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="T3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="U3" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="V3" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="W3" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="X3" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="Y3" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="Z3" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="AA3" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="AB3" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="AC3" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="AD3" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="AE3" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="AF3" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="AG3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="AI3" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="AJ3" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1873,109 +1966,109 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L4" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="N4" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="O4" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S4" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="T4" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="U4" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="V4" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="W4" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="X4" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="Y4" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="Z4" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="AA4" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AB4" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="AC4" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="AD4" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="AE4" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="AF4" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="AG4" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="AH4" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="AI4" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="AJ4" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -12433,109 +12526,109 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H100" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I100" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J100" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K100" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L100" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M100" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="N100" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O100" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q100" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="R100" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="S100" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="T100" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="U100" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="V100" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="W100" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="X100" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="Y100" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Z100" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="AA100" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AB100" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="AC100" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AD100" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="AE100" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AF100" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="AG100" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="AH100" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="AI100" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="AJ100" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -12543,109 +12636,109 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H101" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K101" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L101" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="N101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="R101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="S101" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="T101" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="U101" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="V101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="W101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="X101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Y101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Z101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="AA101" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AB101" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AC101" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AD101" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AE101" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AF101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AG101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AH101" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AI101" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AJ101" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:36">
@@ -12653,109 +12746,109 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H102" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I102" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J102" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K102" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L102" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M102" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N102" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="O102" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q102" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="R102" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="S102" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="T102" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="U102" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="V102" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="W102" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="X102" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="Y102" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="Z102" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="AA102" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="AB102" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AC102" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="AD102" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="AE102" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="AF102" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AG102" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AH102" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="AI102" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="AJ102" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -12763,109 +12856,109 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G103" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H103" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I103" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J103" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K103" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L103" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M103" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="N103" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="O103" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q103" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="R103" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="S103" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="T103" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="U103" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="V103" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="W103" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="X103" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Y103" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="Z103" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AA103" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AB103" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="AC103" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AD103" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="AE103" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AF103" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AG103" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AH103" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AI103" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AJ103" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:36">
@@ -12873,109 +12966,109 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="R104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="S104" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="T104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="U104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="V104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="W104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="X104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="Y104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Z104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AA104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AB104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AC104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AD104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AF104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AG104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AH104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AJ104" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:36">
@@ -12983,109 +13076,109 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G105" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H105" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I105" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J105" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K105" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L105" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="M105" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="N105" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="O105" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q105" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="R105" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="S105" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="T105" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="U105" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="V105" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="W105" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="X105" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="Y105" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="Z105" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AA105" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AB105" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AC105" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AD105" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="AE105" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="AF105" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG105" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AH105" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="AI105" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="AJ105" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:36">
@@ -13093,109 +13186,109 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H106" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I106" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K106" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L106" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M106" t="s">
+        <v>236</v>
+      </c>
+      <c r="N106" t="s">
+        <v>245</v>
+      </c>
+      <c r="O106" t="s">
+        <v>252</v>
+      </c>
+      <c r="P106" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>265</v>
+      </c>
+      <c r="R106" t="s">
         <v>217</v>
       </c>
-      <c r="N106" t="s">
-        <v>226</v>
-      </c>
-      <c r="O106" t="s">
-        <v>233</v>
-      </c>
-      <c r="P106" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>246</v>
-      </c>
-      <c r="R106" t="s">
-        <v>200</v>
-      </c>
       <c r="S106" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="T106" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="U106" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="V106" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="W106" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="X106" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="Y106" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="Z106" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="AA106" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="AB106" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="AC106" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="AD106" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="AE106" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="AF106" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AG106" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AH106" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AI106" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AJ106" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:36">
@@ -13203,109 +13296,109 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E107" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="N107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="R107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="S107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="T107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="U107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="V107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="W107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="X107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Y107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Z107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AA107" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AB107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AC107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AD107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AE107" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="AF107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AG107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AH107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AI107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AJ107" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:36">
@@ -13313,109 +13406,617 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" t="s">
+        <v>170</v>
+      </c>
+      <c r="G108" t="s">
+        <v>180</v>
+      </c>
+      <c r="H108" t="s">
+        <v>189</v>
+      </c>
+      <c r="I108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J108" t="s">
+        <v>208</v>
+      </c>
+      <c r="K108" t="s">
+        <v>218</v>
+      </c>
+      <c r="L108" t="s">
+        <v>227</v>
+      </c>
+      <c r="M108" t="s">
+        <v>237</v>
+      </c>
+      <c r="N108" t="s">
+        <v>246</v>
+      </c>
+      <c r="O108" t="s">
+        <v>253</v>
+      </c>
+      <c r="P108" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>266</v>
+      </c>
+      <c r="R108" t="s">
+        <v>274</v>
+      </c>
+      <c r="S108" t="s">
+        <v>285</v>
+      </c>
+      <c r="T108" t="s">
+        <v>296</v>
+      </c>
+      <c r="U108" t="s">
+        <v>305</v>
+      </c>
+      <c r="V108" t="s">
+        <v>315</v>
+      </c>
+      <c r="W108" t="s">
+        <v>325</v>
+      </c>
+      <c r="X108" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>410</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" t="s">
+        <v>160</v>
+      </c>
+      <c r="F109" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" t="s">
+        <v>181</v>
+      </c>
+      <c r="H109" t="s">
+        <v>181</v>
+      </c>
+      <c r="I109" t="s">
+        <v>200</v>
+      </c>
+      <c r="J109" t="s">
+        <v>200</v>
+      </c>
+      <c r="K109" t="s">
+        <v>219</v>
+      </c>
+      <c r="L109" t="s">
+        <v>228</v>
+      </c>
+      <c r="M109" t="s">
+        <v>228</v>
+      </c>
+      <c r="N109" t="s">
+        <v>228</v>
+      </c>
+      <c r="O109" t="s">
+        <v>228</v>
+      </c>
+      <c r="P109" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>267</v>
+      </c>
+      <c r="R109" t="s">
+        <v>267</v>
+      </c>
+      <c r="S109" t="s">
+        <v>286</v>
+      </c>
+      <c r="T109" t="s">
+        <v>297</v>
+      </c>
+      <c r="U109" t="s">
+        <v>297</v>
+      </c>
+      <c r="V109" t="s">
+        <v>316</v>
+      </c>
+      <c r="W109" t="s">
+        <v>326</v>
+      </c>
+      <c r="X109" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>128</v>
       </c>
-      <c r="D108" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" t="s">
-        <v>155</v>
-      </c>
-      <c r="G108" t="s">
-        <v>165</v>
-      </c>
-      <c r="H108" t="s">
-        <v>173</v>
-      </c>
-      <c r="I108" t="s">
-        <v>183</v>
-      </c>
-      <c r="J108" t="s">
-        <v>191</v>
-      </c>
-      <c r="K108" t="s">
-        <v>201</v>
-      </c>
-      <c r="L108" t="s">
-        <v>209</v>
-      </c>
-      <c r="M108" t="s">
-        <v>218</v>
-      </c>
-      <c r="N108" t="s">
-        <v>227</v>
-      </c>
-      <c r="O108" t="s">
-        <v>234</v>
-      </c>
-      <c r="P108" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>247</v>
-      </c>
-      <c r="R108" t="s">
-        <v>254</v>
-      </c>
-      <c r="S108" t="s">
-        <v>265</v>
-      </c>
-      <c r="T108" t="s">
-        <v>275</v>
-      </c>
-      <c r="U108" t="s">
-        <v>283</v>
-      </c>
-      <c r="V108" t="s">
-        <v>293</v>
-      </c>
-      <c r="W108" t="s">
-        <v>302</v>
-      </c>
-      <c r="X108" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD108" t="s">
+      <c r="C110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H110" t="s">
+        <v>128</v>
+      </c>
+      <c r="I110" t="s">
+        <v>128</v>
+      </c>
+      <c r="J110" t="s">
+        <v>128</v>
+      </c>
+      <c r="K110" t="s">
+        <v>129</v>
+      </c>
+      <c r="L110" t="s">
+        <v>129</v>
+      </c>
+      <c r="M110" t="s">
+        <v>129</v>
+      </c>
+      <c r="N110" t="s">
+        <v>129</v>
+      </c>
+      <c r="O110" t="s">
+        <v>129</v>
+      </c>
+      <c r="P110" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>129</v>
+      </c>
+      <c r="R110" t="s">
+        <v>129</v>
+      </c>
+      <c r="S110" t="s">
+        <v>128</v>
+      </c>
+      <c r="T110" t="s">
+        <v>128</v>
+      </c>
+      <c r="U110" t="s">
+        <v>128</v>
+      </c>
+      <c r="V110" t="s">
+        <v>129</v>
+      </c>
+      <c r="W110" t="s">
+        <v>129</v>
+      </c>
+      <c r="X110" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111" t="s">
+        <v>161</v>
+      </c>
+      <c r="G111" t="s">
+        <v>129</v>
+      </c>
+      <c r="H111" t="s">
+        <v>129</v>
+      </c>
+      <c r="I111" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" t="s">
+        <v>129</v>
+      </c>
+      <c r="K111" t="s">
+        <v>130</v>
+      </c>
+      <c r="L111" t="s">
+        <v>130</v>
+      </c>
+      <c r="M111" t="s">
+        <v>130</v>
+      </c>
+      <c r="N111" t="s">
+        <v>130</v>
+      </c>
+      <c r="O111" t="s">
+        <v>130</v>
+      </c>
+      <c r="P111" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>130</v>
+      </c>
+      <c r="R111" t="s">
+        <v>130</v>
+      </c>
+      <c r="S111" t="s">
+        <v>129</v>
+      </c>
+      <c r="T111" t="s">
+        <v>129</v>
+      </c>
+      <c r="U111" t="s">
+        <v>129</v>
+      </c>
+      <c r="V111" t="s">
+        <v>130</v>
+      </c>
+      <c r="W111" t="s">
+        <v>130</v>
+      </c>
+      <c r="X111" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H112" t="s">
+        <v>130</v>
+      </c>
+      <c r="I112" t="s">
+        <v>130</v>
+      </c>
+      <c r="J112" t="s">
+        <v>130</v>
+      </c>
+      <c r="K112" t="s">
+        <v>161</v>
+      </c>
+      <c r="L112" t="s">
+        <v>161</v>
+      </c>
+      <c r="M112" t="s">
+        <v>161</v>
+      </c>
+      <c r="N112" t="s">
+        <v>161</v>
+      </c>
+      <c r="O112" t="s">
+        <v>161</v>
+      </c>
+      <c r="P112" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>161</v>
+      </c>
+      <c r="R112" t="s">
+        <v>161</v>
+      </c>
+      <c r="S112" t="s">
+        <v>130</v>
+      </c>
+      <c r="T112" t="s">
+        <v>130</v>
+      </c>
+      <c r="U112" t="s">
+        <v>130</v>
+      </c>
+      <c r="V112" t="s">
+        <v>161</v>
+      </c>
+      <c r="W112" t="s">
+        <v>161</v>
+      </c>
+      <c r="X112" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S113" t="s">
+        <v>161</v>
+      </c>
+      <c r="W113" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S114" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z116" t="s">
         <v>353</v>
       </c>
-      <c r="AE108" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF108" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH108" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>326</v>
+      <c r="AJ116" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
